--- a/biology/Médecine/Muscle_scalène_moyen/Muscle_scalène_moyen.xlsx
+++ b/biology/Médecine/Muscle_scalène_moyen/Muscle_scalène_moyen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_scal%C3%A8ne_moyen</t>
+          <t>Muscle_scalène_moyen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle scalène moyen ou muscle scalène dorsal de la 1ère côte(musculus scalenus medius en latin)[1] est un muscle situé sur le côté du cou, derrière le muscle scalène antérieur.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle scalène moyen ou muscle scalène dorsal de la 1ère côte(musculus scalenus medius en latin) est un muscle situé sur le côté du cou, derrière le muscle scalène antérieur.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_scal%C3%A8ne_moyen</t>
+          <t>Muscle_scalène_moyen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Insertions crâniales
-Processus transverses des vertèbres C2-C7.
-Trajet
-Le muscle descend, presque à la verticale, légèrement en avant et en dehors.
-Insertion caudale
-Première côte en arrière de l'artère subclavière.
+          <t>Insertions crâniales</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Processus transverses des vertèbres C2-C7.
 </t>
         </is>
       </c>
@@ -529,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_scal%C3%A8ne_moyen</t>
+          <t>Muscle_scalène_moyen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Innervation</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est innervés par le plexus cervical par les branches cervicales de C3 à C7.
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle descend, presque à la verticale, légèrement en avant et en dehors.
 </t>
         </is>
       </c>
@@ -560,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_scal%C3%A8ne_moyen</t>
+          <t>Muscle_scalène_moyen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +594,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vascularisation</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est vascularisé par une branche de l'artère thyroïdienne inférieure.
+          <t>Insertion caudale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Première côte en arrière de l'artère subclavière.
 </t>
         </is>
       </c>
@@ -591,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_scal%C3%A8ne_moyen</t>
+          <t>Muscle_scalène_moyen</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,10 +631,78 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est innervés par le plexus cervical par les branches cervicales de C3 à C7.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Muscle_scalène_moyen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_scal%C3%A8ne_moyen</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vascularisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est vascularisé par une branche de l'artère thyroïdienne inférieure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Muscle_scalène_moyen</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_scal%C3%A8ne_moyen</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est :
 élévateur de la première côte en prenant appui sur le cou, il est donc inspirateur ;
@@ -621,31 +714,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Muscle_scal%C3%A8ne_moyen</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Muscle_scalène_moyen</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Muscle_scal%C3%A8ne_moyen</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les scalènes sont disposés en deux-plans : l'antérieur en avant, le scalène moyen et le scalène postérieur en arrière. Ils délimitent ainsi avec les côtes le triangle interscalénique par où passent les branches du plexus brachial et l'artère sous-clavière.
 </t>
